--- a/寄存器分配与协议.xlsx
+++ b/寄存器分配与协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\021_除湿机数字版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\021_dehumi_analog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369C254-DB3B-4EDB-BC62-DAA311207C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CCC05B-E260-4B7F-860B-027FED246807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LW分配表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="454">
   <si>
     <t>寄存器分配表</t>
   </si>
@@ -1420,6 +1420,18 @@
   </si>
   <si>
     <t>冻结命令发生计时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气质量按键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气质量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化修正（等级0-良，1-优秀，2-差，3-不修正）新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1815,6 +1827,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1827,6 +1843,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1835,83 +1855,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2208,24 +2224,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
@@ -2249,7 +2265,7 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="23">
@@ -2265,12 +2281,12 @@
         <v>10</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="23">
         <v>1</v>
       </c>
@@ -2286,10 +2302,10 @@
       <c r="F5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="23">
         <v>2</v>
       </c>
@@ -2305,10 +2321,10 @@
       <c r="F6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="23">
         <v>3</v>
       </c>
@@ -2324,10 +2340,10 @@
       <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="23">
         <v>4</v>
       </c>
@@ -2341,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="23">
         <v>5</v>
       </c>
@@ -2360,10 +2376,10 @@
       <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="27">
         <v>6</v>
       </c>
@@ -2377,13 +2393,13 @@
         <v>17</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="27">
         <v>7</v>
       </c>
@@ -2397,13 +2413,13 @@
         <v>19</v>
       </c>
       <c r="F11" s="23"/>
-      <c r="G11" s="59"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="23">
         <v>8</v>
       </c>
@@ -2417,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="23">
         <v>9</v>
       </c>
@@ -2434,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="23"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="23">
         <v>10</v>
       </c>
@@ -2451,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="23">
         <v>11</v>
       </c>
@@ -2468,19 +2484,19 @@
         <v>10</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="23">
         <v>50</v>
       </c>
@@ -2492,33 +2508,33 @@
         <v>21</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="59"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="60"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="60"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="23">
@@ -2535,12 +2551,12 @@
       <c r="F21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="63" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="23">
         <f>C21+1</f>
         <v>101</v>
@@ -2556,10 +2572,10 @@
       <c r="F22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="61"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="23">
         <f>C22+1</f>
         <v>102</v>
@@ -2575,10 +2591,10 @@
       <c r="F23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="23">
         <f t="shared" ref="B24:B29" si="1">C23+1</f>
         <v>103</v>
@@ -2594,10 +2610,10 @@
       <c r="F24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="23">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2613,10 +2629,10 @@
       <c r="F25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2632,10 +2648,10 @@
       <c r="F26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="27">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2651,13 +2667,13 @@
       <c r="F27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="63"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="27">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2673,13 +2689,13 @@
       <c r="F28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="27">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2695,21 +2711,21 @@
       <c r="F29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="61"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="61"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="27">
         <v>120</v>
       </c>
@@ -2725,13 +2741,13 @@
       <c r="F31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="61"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="27">
         <v>122</v>
       </c>
@@ -2747,13 +2763,13 @@
       <c r="F32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="61"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="27">
         <v>123</v>
       </c>
@@ -2769,31 +2785,31 @@
       <c r="F33" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="61"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="63"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="61"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="62"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="27">
@@ -2809,10 +2825,10 @@
       <c r="E36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="60" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="41" t="s">
@@ -2820,7 +2836,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="23">
         <f t="shared" ref="B37:B48" si="3">C36+1</f>
         <v>302</v>
@@ -2835,14 +2851,14 @@
       <c r="E37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="23">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -2857,14 +2873,14 @@
       <c r="E38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="27">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -2879,14 +2895,14 @@
       <c r="E39" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="59"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="27">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -2901,16 +2917,16 @@
       <c r="E40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="59"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="23">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -2925,14 +2941,14 @@
       <c r="E41" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="59"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="23">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -2947,14 +2963,14 @@
       <c r="E42" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="27">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -2969,14 +2985,14 @@
       <c r="E43" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="59"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="59"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="23">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -2991,13 +3007,13 @@
       <c r="E44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="59"/>
+      <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="23">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -3012,11 +3028,11 @@
       <c r="E45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="59"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="23">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -3031,13 +3047,13 @@
       <c r="E46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="59"/>
+      <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="23">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -3052,11 +3068,11 @@
       <c r="E47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="27">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -3074,13 +3090,13 @@
       <c r="F48" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="59"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="27">
         <f t="shared" ref="B49:B53" si="5">C48+1</f>
         <v>317</v>
@@ -3095,16 +3111,16 @@
       <c r="E49" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="59"/>
+      <c r="G49" s="60"/>
       <c r="H49" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="23">
         <f t="shared" si="5"/>
         <v>318</v>
@@ -3119,11 +3135,11 @@
       <c r="E50" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="59"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="60"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="23">
         <f t="shared" si="5"/>
         <v>319</v>
@@ -3138,14 +3154,14 @@
       <c r="E51" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="59"/>
+      <c r="F51" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="60"/>
       <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="59"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="23">
         <f t="shared" si="5"/>
         <v>320</v>
@@ -3160,12 +3176,12 @@
       <c r="E52" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
       <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="23">
         <f t="shared" si="5"/>
         <v>321</v>
@@ -3180,12 +3196,12 @@
       <c r="E53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
       <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="59"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="23">
         <f t="shared" ref="B54:B60" si="7">C53+1</f>
         <v>322</v>
@@ -3200,11 +3216,11 @@
       <c r="E54" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="59"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="23">
         <f t="shared" si="7"/>
         <v>323</v>
@@ -3219,11 +3235,11 @@
       <c r="E55" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="59"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="59"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="23">
         <f t="shared" si="7"/>
         <v>325</v>
@@ -3238,13 +3254,13 @@
       <c r="E56" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="59"/>
+      <c r="G56" s="60"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="59"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="23">
         <f t="shared" si="7"/>
         <v>326</v>
@@ -3259,11 +3275,11 @@
       <c r="E57" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="59"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="23">
         <f t="shared" si="7"/>
         <v>327</v>
@@ -3278,11 +3294,11 @@
       <c r="E58" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="59"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="60"/>
     </row>
     <row r="59" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="59"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="23">
         <f t="shared" si="7"/>
         <v>328</v>
@@ -3297,11 +3313,11 @@
       <c r="E59" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="59"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="60"/>
     </row>
     <row r="60" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="59"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="27">
         <f t="shared" si="7"/>
         <v>330</v>
@@ -3319,13 +3335,13 @@
       <c r="F60" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="59"/>
+      <c r="G60" s="60"/>
       <c r="H60" s="41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="59"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="27">
         <v>331</v>
       </c>
@@ -3339,16 +3355,16 @@
       <c r="E61" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="59"/>
+      <c r="G61" s="60"/>
       <c r="H61" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="59"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="27">
         <v>332</v>
       </c>
@@ -3362,14 +3378,14 @@
       <c r="E62" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="59"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="60"/>
       <c r="H62" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="59"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="27">
         <v>333</v>
       </c>
@@ -3383,14 +3399,14 @@
       <c r="E63" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="61"/>
-      <c r="G63" s="59"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="60"/>
       <c r="H63" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="59"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="23">
         <v>334</v>
       </c>
@@ -3404,11 +3420,11 @@
       <c r="E64" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="59"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="60"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="59"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="23">
         <v>335</v>
       </c>
@@ -3423,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="59"/>
+      <c r="G65" s="60"/>
       <c r="H65" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="59"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="27">
         <v>336</v>
       </c>
@@ -3444,13 +3460,13 @@
         <v>73</v>
       </c>
       <c r="F66" s="34"/>
-      <c r="G66" s="59"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="59"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="29">
         <v>337</v>
       </c>
@@ -3464,16 +3480,16 @@
       <c r="E67" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="66" t="s">
+      <c r="F67" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="59"/>
+      <c r="G67" s="60"/>
       <c r="H67" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="59"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="29">
         <v>338</v>
       </c>
@@ -3487,14 +3503,14 @@
       <c r="E68" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="67"/>
-      <c r="G68" s="59"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="29">
         <v>339</v>
       </c>
@@ -3508,14 +3524,14 @@
       <c r="E69" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="67"/>
-      <c r="G69" s="59"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="60"/>
       <c r="H69" s="44" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="59"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="29">
         <v>340</v>
       </c>
@@ -3529,14 +3545,14 @@
       <c r="E70" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="59"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="59"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="29">
         <v>341</v>
       </c>
@@ -3550,14 +3566,14 @@
       <c r="E71" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="67"/>
-      <c r="G71" s="59"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="60"/>
       <c r="H71" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="59"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="29">
         <v>342</v>
       </c>
@@ -3571,14 +3587,14 @@
       <c r="E72" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="59"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="44" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="59"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="29">
         <v>343</v>
       </c>
@@ -3592,14 +3608,14 @@
       <c r="E73" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="59"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="59"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="29">
         <v>344</v>
       </c>
@@ -3613,14 +3629,14 @@
       <c r="E74" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F74" s="67"/>
-      <c r="G74" s="59"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="44" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="59"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="29">
         <v>345</v>
       </c>
@@ -3634,14 +3650,14 @@
       <c r="E75" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F75" s="67"/>
-      <c r="G75" s="59"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="44" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="59"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="29">
         <v>346</v>
       </c>
@@ -3655,14 +3671,14 @@
       <c r="E76" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="68"/>
-      <c r="G76" s="59"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A77" s="59"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="27">
         <v>347</v>
       </c>
@@ -3676,13 +3692,13 @@
         <v>96</v>
       </c>
       <c r="F77" s="34"/>
-      <c r="G77" s="59"/>
+      <c r="G77" s="60"/>
       <c r="H77" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="59"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="48">
         <v>503</v>
       </c>
@@ -3697,13 +3713,13 @@
         <v>98</v>
       </c>
       <c r="F78" s="34"/>
-      <c r="G78" s="59"/>
+      <c r="G78" s="60"/>
       <c r="H78" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="59"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="48">
         <f>C78+1</f>
         <v>505</v>
@@ -3719,13 +3735,13 @@
         <v>100</v>
       </c>
       <c r="F79" s="34"/>
-      <c r="G79" s="59"/>
+      <c r="G79" s="60"/>
       <c r="H79" s="45" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="59"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="48">
         <v>507</v>
       </c>
@@ -3739,13 +3755,13 @@
         <v>102</v>
       </c>
       <c r="F80" s="34"/>
-      <c r="G80" s="59"/>
+      <c r="G80" s="60"/>
       <c r="H80" s="41" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="59"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="48">
         <v>508</v>
       </c>
@@ -3759,13 +3775,13 @@
         <v>104</v>
       </c>
       <c r="F81" s="34"/>
-      <c r="G81" s="59"/>
+      <c r="G81" s="60"/>
       <c r="H81" s="41" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="59"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="48">
         <v>509</v>
       </c>
@@ -3779,13 +3795,13 @@
         <v>106</v>
       </c>
       <c r="F82" s="34"/>
-      <c r="G82" s="59"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="59"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="48">
         <v>510</v>
       </c>
@@ -3799,13 +3815,13 @@
         <v>108</v>
       </c>
       <c r="F83" s="34"/>
-      <c r="G83" s="59"/>
+      <c r="G83" s="60"/>
       <c r="H83" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="59"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="48">
         <v>511</v>
       </c>
@@ -3819,13 +3835,13 @@
         <v>111</v>
       </c>
       <c r="F84" s="34"/>
-      <c r="G84" s="59"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="45" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="59"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="48">
         <v>513</v>
       </c>
@@ -3839,13 +3855,13 @@
         <v>113</v>
       </c>
       <c r="F85" s="34"/>
-      <c r="G85" s="59"/>
+      <c r="G85" s="60"/>
       <c r="H85" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="59"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="48">
         <v>514</v>
       </c>
@@ -3859,13 +3875,13 @@
         <v>115</v>
       </c>
       <c r="F86" s="34"/>
-      <c r="G86" s="59"/>
+      <c r="G86" s="60"/>
       <c r="H86" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="59"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="48">
         <v>515</v>
       </c>
@@ -3879,13 +3895,13 @@
         <v>117</v>
       </c>
       <c r="F87" s="34"/>
-      <c r="G87" s="59"/>
+      <c r="G87" s="60"/>
       <c r="H87" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A88" s="59"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="48">
         <v>516</v>
       </c>
@@ -3899,13 +3915,13 @@
         <v>119</v>
       </c>
       <c r="F88" s="34"/>
-      <c r="G88" s="59"/>
+      <c r="G88" s="60"/>
       <c r="H88" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="59"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="48">
         <v>518</v>
       </c>
@@ -3919,13 +3935,13 @@
         <v>121</v>
       </c>
       <c r="F89" s="34"/>
-      <c r="G89" s="59"/>
+      <c r="G89" s="60"/>
       <c r="H89" s="41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="59"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="49">
         <v>519</v>
       </c>
@@ -3939,19 +3955,27 @@
         <v>123</v>
       </c>
       <c r="F90" s="34"/>
-      <c r="G90" s="59"/>
+      <c r="G90" s="60"/>
       <c r="H90" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="59"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="49">
+        <v>550</v>
+      </c>
+      <c r="C91" s="50">
+        <v>550</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>453</v>
+      </c>
       <c r="F91" s="34"/>
-      <c r="G91" s="59"/>
+      <c r="G91" s="60"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="60"/>
@@ -3967,785 +3991,832 @@
       <c r="E92" s="55" t="s">
         <v>443</v>
       </c>
-      <c r="F92" s="23"/>
+      <c r="F92" s="34"/>
       <c r="G92" s="60"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="49">
+        <v>602</v>
+      </c>
+      <c r="C93" s="50">
+        <v>602</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="60"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="61"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="61"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B95" s="52">
         <v>50000</v>
       </c>
-      <c r="C93" s="23">
-        <f t="shared" ref="C93:C94" si="9">B93</f>
+      <c r="C95" s="23">
+        <f t="shared" ref="C95:C96" si="9">B95</f>
         <v>50000</v>
       </c>
-      <c r="D93" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="23"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="64"/>
-      <c r="B94" s="52">
-        <f>C93+1</f>
+      <c r="D95" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="58"/>
+      <c r="B96" s="52">
+        <f>C95+1</f>
         <v>50001</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C96" s="23">
         <f t="shared" si="9"/>
         <v>50001</v>
       </c>
-      <c r="D94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="23"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="64"/>
-      <c r="B95" s="48">
+      <c r="D96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="58"/>
+      <c r="B97" s="48">
         <v>50002</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C97" s="27">
         <v>50002</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D97" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E97" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="64"/>
-      <c r="B96" s="48">
-        <v>50003</v>
-      </c>
-      <c r="C96" s="27">
-        <f>B96+1</f>
-        <v>50004</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="64"/>
-      <c r="B97" s="48">
-        <f>C96+1</f>
-        <v>50005</v>
-      </c>
-      <c r="C97" s="27">
-        <f>B97+1</f>
-        <v>50006</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="23"/>
       <c r="H97" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="58"/>
+      <c r="B98" s="48">
+        <v>50003</v>
+      </c>
+      <c r="C98" s="27">
+        <f>B98+1</f>
+        <v>50004</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" s="23"/>
+      <c r="H98" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" s="58"/>
+      <c r="B99" s="48">
+        <f>C98+1</f>
+        <v>50005</v>
+      </c>
+      <c r="C99" s="27">
+        <f>B99+1</f>
+        <v>50006</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" s="23"/>
+      <c r="H99" s="45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="64"/>
-      <c r="B98" s="48">
-        <f>C97+1</f>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" s="58"/>
+      <c r="B100" s="48">
+        <f>C99+1</f>
         <v>50007</v>
       </c>
-      <c r="C98" s="27">
-        <f>B98</f>
+      <c r="C100" s="27">
+        <f>B100</f>
         <v>50007</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D100" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E100" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="41" t="s">
+      <c r="F100" s="23"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="64"/>
-      <c r="B99" s="48">
-        <f t="shared" ref="B99:B104" si="10">C98+1</f>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" s="58"/>
+      <c r="B101" s="48">
+        <f t="shared" ref="B101:B106" si="10">C100+1</f>
         <v>50008</v>
       </c>
-      <c r="C99" s="27">
-        <f t="shared" ref="C99:C104" si="11">B99</f>
+      <c r="C101" s="27">
+        <f t="shared" ref="C101:C106" si="11">B101</f>
         <v>50008</v>
       </c>
-      <c r="D99" s="27" t="s">
+      <c r="D101" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E101" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="64"/>
-      <c r="B100" s="48">
-        <f t="shared" si="10"/>
-        <v>50009</v>
-      </c>
-      <c r="C100" s="27">
-        <f t="shared" si="11"/>
-        <v>50009</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="64"/>
-      <c r="B101" s="48">
-        <f t="shared" si="10"/>
-        <v>50010</v>
-      </c>
-      <c r="C101" s="27">
-        <f t="shared" si="11"/>
-        <v>50010</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
       <c r="H101" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A102" s="64"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="58"/>
       <c r="B102" s="48">
         <f t="shared" si="10"/>
-        <v>50011</v>
+        <v>50009</v>
       </c>
       <c r="C102" s="27">
-        <f>B102+1</f>
-        <v>50012</v>
+        <f t="shared" si="11"/>
+        <v>50009</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>111</v>
+        <v>9</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="45" t="s">
-        <v>136</v>
+      <c r="H102" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="64"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="48">
         <f t="shared" si="10"/>
-        <v>50013</v>
+        <v>50010</v>
       </c>
       <c r="C103" s="27">
         <f t="shared" si="11"/>
-        <v>50013</v>
+        <v>50010</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="64"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A104" s="58"/>
       <c r="B104" s="48">
         <f t="shared" si="10"/>
-        <v>50014</v>
+        <v>50011</v>
       </c>
       <c r="C104" s="27">
-        <f t="shared" si="11"/>
-        <v>50014</v>
+        <f>B104+1</f>
+        <v>50012</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="41" t="s">
-        <v>138</v>
+      <c r="H104" s="45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="64"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="48">
-        <v>50015</v>
+        <f t="shared" si="10"/>
+        <v>50013</v>
       </c>
       <c r="C105" s="27">
-        <v>50015</v>
+        <f t="shared" si="11"/>
+        <v>50013</v>
       </c>
       <c r="D105" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
       <c r="H105" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A106" s="64"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" s="58"/>
       <c r="B106" s="48">
-        <v>50016</v>
+        <f t="shared" si="10"/>
+        <v>50014</v>
       </c>
       <c r="C106" s="27">
-        <f>B106+1</f>
-        <v>50017</v>
+        <f t="shared" si="11"/>
+        <v>50014</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
       <c r="H106" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="64"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="48">
-        <v>50018</v>
+        <v>50015</v>
       </c>
       <c r="C107" s="27">
-        <v>50018</v>
+        <v>50015</v>
       </c>
       <c r="D107" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
       <c r="H107" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A108" s="58"/>
+      <c r="B108" s="48">
+        <v>50016</v>
+      </c>
+      <c r="C108" s="27">
+        <f>B108+1</f>
+        <v>50017</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" s="58"/>
+      <c r="B109" s="48">
+        <v>50018</v>
+      </c>
+      <c r="C109" s="27">
+        <v>50018</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="64"/>
-      <c r="B108" s="49">
-        <f>C107+1</f>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="58"/>
+      <c r="B110" s="49">
+        <f>C109+1</f>
         <v>50019</v>
       </c>
-      <c r="C108" s="50">
-        <f>B108</f>
+      <c r="C110" s="50">
+        <f>B110</f>
         <v>50019</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D110" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="51" t="s">
+      <c r="E110" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="41" t="s">
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="64"/>
-      <c r="B109" s="48">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="58"/>
+      <c r="B111" s="48">
         <v>50020</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C111" s="27">
         <v>50020</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="64"/>
-      <c r="B110" s="48">
-        <v>50021</v>
-      </c>
-      <c r="C110" s="27">
-        <v>50021</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="64"/>
-      <c r="B111" s="48">
-        <v>50022</v>
-      </c>
-      <c r="C111" s="27">
-        <v>50022</v>
       </c>
       <c r="D111" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
       <c r="H111" s="53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="64"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="48">
-        <v>50023</v>
+        <v>50021</v>
       </c>
       <c r="C112" s="27">
-        <v>50023</v>
+        <v>50021</v>
       </c>
       <c r="D112" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" s="64"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="48">
-        <v>50024</v>
+        <v>50022</v>
       </c>
       <c r="C113" s="27">
-        <v>50024</v>
+        <v>50022</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="64"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="48">
-        <v>50025</v>
+        <v>50023</v>
       </c>
       <c r="C114" s="27">
-        <v>50025</v>
+        <v>50023</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="64"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="48">
-        <v>50026</v>
+        <v>50024</v>
       </c>
       <c r="C115" s="27">
-        <v>50026</v>
+        <v>50024</v>
       </c>
       <c r="D115" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" s="64"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="48">
-        <v>50027</v>
+        <v>50025</v>
       </c>
       <c r="C116" s="27">
-        <v>50027</v>
+        <v>50025</v>
       </c>
       <c r="D116" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" s="64"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="48">
-        <v>50028</v>
+        <v>50026</v>
       </c>
       <c r="C117" s="27">
-        <v>50028</v>
+        <v>50026</v>
       </c>
       <c r="D117" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="64"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="48">
-        <v>50029</v>
+        <v>50027</v>
       </c>
       <c r="C118" s="27">
-        <v>50029</v>
+        <v>50027</v>
       </c>
       <c r="D118" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="64"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="48">
-        <v>50030</v>
+        <v>50028</v>
       </c>
       <c r="C119" s="27">
-        <v>50030</v>
+        <v>50028</v>
       </c>
       <c r="D119" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
       <c r="H119" s="53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="64"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="48">
-        <v>50031</v>
+        <v>50029</v>
       </c>
       <c r="C120" s="27">
-        <v>50031</v>
+        <v>50029</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="64"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="48">
-        <v>50032</v>
+        <v>50030</v>
       </c>
       <c r="C121" s="27">
-        <v>50032</v>
+        <v>50030</v>
       </c>
       <c r="D121" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="64"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="48">
-        <v>50033</v>
+        <v>50031</v>
       </c>
       <c r="C122" s="27">
-        <v>50033</v>
+        <v>50031</v>
       </c>
       <c r="D122" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="64"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="48">
-        <v>50034</v>
+        <v>50032</v>
       </c>
       <c r="C123" s="27">
-        <v>50034</v>
+        <v>50032</v>
       </c>
       <c r="D123" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
       <c r="H123" s="53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="64"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="48">
-        <v>50035</v>
+        <v>50033</v>
       </c>
       <c r="C124" s="27">
-        <v>50035</v>
+        <v>50033</v>
       </c>
       <c r="D124" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" s="64"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="48">
-        <v>50036</v>
+        <v>50034</v>
       </c>
       <c r="C125" s="27">
-        <v>50036</v>
+        <v>50034</v>
       </c>
       <c r="D125" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="53" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="64"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="48">
-        <v>50037</v>
+        <v>50035</v>
       </c>
       <c r="C126" s="27">
-        <v>50037</v>
+        <v>50035</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="64"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="48">
-        <v>50038</v>
+        <v>50036</v>
       </c>
       <c r="C127" s="27">
-        <v>50038</v>
+        <v>50036</v>
       </c>
       <c r="D127" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
       <c r="H127" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" s="58"/>
+      <c r="B128" s="48">
+        <v>50037</v>
+      </c>
+      <c r="C128" s="27">
+        <v>50037</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" s="58"/>
+      <c r="B129" s="48">
+        <v>50038</v>
+      </c>
+      <c r="C129" s="27">
+        <v>50038</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B128" s="39">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B130" s="39">
         <v>50050</v>
       </c>
-      <c r="C128" s="27">
-        <f>B128</f>
+      <c r="C130" s="27">
+        <f>B130</f>
         <v>50050</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E128" s="54" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B129" s="39">
-        <v>50051</v>
-      </c>
-      <c r="C129" s="27">
-        <f t="shared" ref="C129" si="12">B129</f>
-        <v>50051</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E129" s="54" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B130" s="39">
-        <v>50052</v>
-      </c>
-      <c r="C130" s="27">
-        <f t="shared" ref="C130" si="13">B130</f>
-        <v>50052</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="E130" s="54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B131" s="39">
+        <v>50051</v>
+      </c>
+      <c r="C131" s="27">
+        <f t="shared" ref="C131" si="12">B131</f>
+        <v>50051</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B132" s="39">
+        <v>50052</v>
+      </c>
+      <c r="C132" s="27">
+        <f t="shared" ref="C132" si="13">B132</f>
+        <v>50052</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="57" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B133" s="39">
+        <v>60002</v>
+      </c>
+      <c r="C133" s="39">
+        <v>60002</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133" s="87" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A93:A127"/>
+    <mergeCell ref="G4:G20"/>
+    <mergeCell ref="G21:G35"/>
+    <mergeCell ref="G36:G94"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A36:A94"/>
+    <mergeCell ref="A95:A129"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="F40:F43"/>
     <mergeCell ref="F44:F45"/>
@@ -4755,13 +4826,6 @@
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="F61:F64"/>
     <mergeCell ref="F67:F76"/>
-    <mergeCell ref="G4:G20"/>
-    <mergeCell ref="G21:G35"/>
-    <mergeCell ref="G36:G92"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="A36:A92"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4771,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4788,20 +4852,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
@@ -4819,7 +4883,7 @@
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="23">
@@ -4829,12 +4893,12 @@
         <v>10</v>
       </c>
       <c r="D4" s="23"/>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="23">
         <v>2</v>
       </c>
@@ -4844,10 +4908,10 @@
       <c r="D5" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -4855,10 +4919,10 @@
         <v>184</v>
       </c>
       <c r="D6" s="23"/>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="23">
         <v>4</v>
       </c>
@@ -4866,10 +4930,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="23">
         <v>5</v>
       </c>
@@ -4877,10 +4941,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="23"/>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="23">
         <v>6</v>
       </c>
@@ -4888,10 +4952,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="23">
         <v>7</v>
       </c>
@@ -4899,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="23">
         <v>8</v>
       </c>
@@ -4912,10 +4976,10 @@
       <c r="D11" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="23">
         <v>9</v>
       </c>
@@ -4923,13 +4987,13 @@
         <v>187</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="23">
         <v>10</v>
       </c>
@@ -4937,13 +5001,13 @@
         <v>189</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="23">
         <v>11</v>
       </c>
@@ -4951,13 +5015,13 @@
         <v>191</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="23">
         <v>12</v>
       </c>
@@ -4965,13 +5029,13 @@
         <v>193</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="23">
         <v>13</v>
       </c>
@@ -4979,13 +5043,13 @@
         <v>195</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="59"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="23">
         <v>14</v>
       </c>
@@ -4993,13 +5057,13 @@
         <v>197</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="23">
         <v>15</v>
       </c>
@@ -5007,13 +5071,13 @@
         <v>199</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="23">
         <v>16</v>
       </c>
@@ -5021,13 +5085,13 @@
         <v>201</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="23">
         <v>17</v>
       </c>
@@ -5035,13 +5099,13 @@
         <v>203</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="23">
         <v>18</v>
       </c>
@@ -5049,10 +5113,10 @@
         <v>10</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="60"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="23">
@@ -5061,10 +5125,10 @@
       <c r="C22" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="63" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -5072,7 +5136,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="23">
         <f>B22+1</f>
         <v>101</v>
@@ -5080,14 +5144,14 @@
       <c r="C23" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="23">
         <f t="shared" ref="B24:B32" si="0">B23+1</f>
         <v>102</v>
@@ -5095,14 +5159,14 @@
       <c r="C24" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="23">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -5110,14 +5174,14 @@
       <c r="C25" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -5125,11 +5189,11 @@
       <c r="C26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -5138,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="61"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="63"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -5150,10 +5214,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="25"/>
-      <c r="E28" s="61"/>
+      <c r="E28" s="63"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -5162,13 +5226,13 @@
         <v>214</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="23">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -5179,13 +5243,13 @@
       <c r="D30" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="21" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -5194,13 +5258,13 @@
         <v>219</v>
       </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="61"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="21" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="23">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -5209,13 +5273,13 @@
         <v>221</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="61"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="23">
         <v>111</v>
       </c>
@@ -5223,13 +5287,13 @@
         <v>222</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="61"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="63"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="23">
         <v>112</v>
       </c>
@@ -5239,13 +5303,13 @@
       <c r="D34" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="23">
         <v>113</v>
       </c>
@@ -5255,13 +5319,13 @@
       <c r="D35" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="E35" s="61"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="23">
         <v>114</v>
       </c>
@@ -5269,13 +5333,13 @@
         <v>229</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="61"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="63"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="23">
         <v>115</v>
       </c>
@@ -5285,13 +5349,13 @@
       <c r="D37" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="61"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="63"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="23">
         <v>116</v>
       </c>
@@ -5301,13 +5365,13 @@
       <c r="D38" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="61"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="63"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="23">
         <v>117</v>
       </c>
@@ -5315,13 +5379,13 @@
         <v>236</v>
       </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="61"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="63"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="23">
         <v>118</v>
       </c>
@@ -5331,13 +5395,13 @@
       <c r="D40" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="61"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="63"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="23">
         <v>119</v>
       </c>
@@ -5345,13 +5409,13 @@
         <v>240</v>
       </c>
       <c r="D41" s="28"/>
-      <c r="E41" s="61"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="63"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="23">
         <v>120</v>
       </c>
@@ -5361,13 +5425,13 @@
       <c r="D42" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="E42" s="61"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="63"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="23">
         <v>121</v>
       </c>
@@ -5375,13 +5439,13 @@
         <v>244</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="61"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="63"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="23">
         <v>122</v>
       </c>
@@ -5391,13 +5455,13 @@
       <c r="D44" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="E44" s="61"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="63"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="23">
         <v>123</v>
       </c>
@@ -5405,13 +5469,13 @@
         <v>248</v>
       </c>
       <c r="D45" s="28"/>
-      <c r="E45" s="61"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="63"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="23">
         <v>124</v>
       </c>
@@ -5421,13 +5485,13 @@
       <c r="D46" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="E46" s="61"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="23">
         <v>125</v>
       </c>
@@ -5435,13 +5499,13 @@
         <v>252</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="61"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="63"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="23">
         <v>126</v>
       </c>
@@ -5451,13 +5515,13 @@
       <c r="D48" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E48" s="61"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="63"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="23">
         <v>127</v>
       </c>
@@ -5467,13 +5531,13 @@
       <c r="D49" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E49" s="61"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="63"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="23">
         <v>128</v>
       </c>
@@ -5483,13 +5547,13 @@
       <c r="D50" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="61"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="63"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="23">
         <v>129</v>
       </c>
@@ -5497,13 +5561,13 @@
         <v>261</v>
       </c>
       <c r="D51" s="32"/>
-      <c r="E51" s="61"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="63"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="23">
         <v>130</v>
       </c>
@@ -5511,13 +5575,13 @@
         <v>263</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="61"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="63"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="23">
         <v>131</v>
       </c>
@@ -5527,13 +5591,13 @@
       <c r="D53" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E53" s="61"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="63"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="23">
         <v>132</v>
       </c>
@@ -5543,13 +5607,13 @@
       <c r="D54" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="61"/>
+      <c r="E54" s="63"/>
       <c r="F54" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="63"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="23">
         <v>133</v>
       </c>
@@ -5559,13 +5623,13 @@
       <c r="D55" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="61"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="63"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="23">
         <v>134</v>
       </c>
@@ -5575,143 +5639,143 @@
       <c r="D56" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="63"/>
       <c r="F56" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="63"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="23">
         <v>135</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="E57" s="61"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="63"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="23">
         <v>136</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="63"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="23">
         <v>137</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="63"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="23">
         <v>138</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="63"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="23">
         <v>139</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
       <c r="F61" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="63"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="23">
         <v>140</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="61"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="63"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="23">
         <v>141</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="D63" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="61"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="63"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="23">
         <v>142</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="61"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="63"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="23">
         <v>143</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="61"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="63"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="23">
         <v>144</v>
       </c>
@@ -5721,13 +5785,13 @@
       <c r="D66" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="61"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="63"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="23">
         <v>145</v>
       </c>
@@ -5737,13 +5801,13 @@
       <c r="D67" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E67" s="61"/>
+      <c r="E67" s="63"/>
       <c r="F67" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A68" s="63"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="23">
         <v>146</v>
       </c>
@@ -5753,13 +5817,13 @@
       <c r="D68" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E68" s="61"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A69" s="63"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="23">
         <v>147</v>
       </c>
@@ -5767,13 +5831,13 @@
         <v>305</v>
       </c>
       <c r="D69" s="34"/>
-      <c r="E69" s="61"/>
+      <c r="E69" s="63"/>
       <c r="F69" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="63"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="23">
         <v>148</v>
       </c>
@@ -5781,57 +5845,57 @@
         <v>307</v>
       </c>
       <c r="D70" s="34"/>
-      <c r="E70" s="61"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="63"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="23">
         <v>149</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="61"/>
+      <c r="E71" s="63"/>
       <c r="F71" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="63"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="23">
         <v>150</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="63"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="23">
         <v>151</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="61"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="63"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="23">
         <v>152</v>
       </c>
@@ -5839,13 +5903,13 @@
         <v>315</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="61"/>
+      <c r="E74" s="63"/>
       <c r="F74" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="63"/>
+      <c r="A75" s="68"/>
       <c r="B75" s="23">
         <v>153</v>
       </c>
@@ -5853,13 +5917,13 @@
         <v>317</v>
       </c>
       <c r="D75" s="34"/>
-      <c r="E75" s="61"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="63"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="23">
         <v>154</v>
       </c>
@@ -5867,93 +5931,93 @@
         <v>319</v>
       </c>
       <c r="D76" s="34"/>
-      <c r="E76" s="61"/>
+      <c r="E76" s="63"/>
       <c r="F76" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="63"/>
+      <c r="A77" s="68"/>
       <c r="B77" s="23">
         <v>155</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="61"/>
+      <c r="E77" s="63"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="63"/>
+      <c r="A78" s="68"/>
       <c r="B78" s="23">
         <v>156</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="61"/>
+      <c r="E78" s="63"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="63"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="23">
         <v>157</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="61"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="63"/>
+      <c r="A80" s="68"/>
       <c r="B80" s="23">
         <v>158</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="61"/>
+      <c r="E80" s="63"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="63"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="23">
         <v>159</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D81" s="65" t="s">
+      <c r="D81" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="E81" s="61"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="63"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="23">
         <v>160</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
       <c r="F82" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="63"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="23">
         <v>161</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="61"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="63"/>
       <c r="F83" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="63"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="23">
         <v>162</v>
       </c>
@@ -5961,20 +6025,20 @@
         <v>327</v>
       </c>
       <c r="D84" s="32"/>
-      <c r="E84" s="61"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="63"/>
+      <c r="A85" s="68"/>
       <c r="B85" s="23"/>
       <c r="C85" s="27"/>
       <c r="D85" s="32"/>
-      <c r="E85" s="61"/>
+      <c r="E85" s="63"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="63"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="23">
         <v>170</v>
       </c>
@@ -5982,10 +6046,10 @@
         <v>445</v>
       </c>
       <c r="D86" s="32"/>
-      <c r="E86" s="61"/>
+      <c r="E86" s="63"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="63"/>
+      <c r="A87" s="68"/>
       <c r="B87" s="23">
         <v>171</v>
       </c>
@@ -5993,10 +6057,10 @@
         <v>448</v>
       </c>
       <c r="D87" s="32"/>
-      <c r="E87" s="61"/>
+      <c r="E87" s="63"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="63"/>
+      <c r="A88" s="68"/>
       <c r="B88" s="8">
         <v>172</v>
       </c>
@@ -6004,93 +6068,104 @@
         <v>449</v>
       </c>
       <c r="D88" s="32"/>
-      <c r="E88" s="62"/>
+      <c r="E88" s="63"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="69" t="s">
+      <c r="A89" s="68"/>
+      <c r="B89" s="8">
+        <v>173</v>
+      </c>
+      <c r="C89" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" s="32"/>
+      <c r="E89" s="64"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B90" s="23">
         <v>50000</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C90" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="69"/>
-      <c r="B90" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="23"/>
       <c r="E90" s="3"/>
       <c r="F90" s="8" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="69"/>
       <c r="B91" s="2">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="69"/>
       <c r="B92" s="2">
+        <v>50002</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="69"/>
+      <c r="B93" s="2">
         <v>50003</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="21"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C93" s="39"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C94" s="39"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="39"/>
       <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B96" s="39"/>
       <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C97" s="39"/>
     </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C98" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="E4:E21"/>
+    <mergeCell ref="E22:E89"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A22:A89"/>
+    <mergeCell ref="A90:A93"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E4:E21"/>
-    <mergeCell ref="E22:E88"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="A22:A88"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6101,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:K31"/>
+    <sheetView topLeftCell="L14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N25" sqref="N24:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6131,26 +6206,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
@@ -6169,32 +6244,32 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
     </row>
     <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
@@ -6315,73 +6390,73 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
@@ -6594,26 +6669,26 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
@@ -6622,24 +6697,24 @@
       <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
@@ -6650,32 +6725,32 @@
     <row r="17" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
     </row>
     <row r="20" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
@@ -6754,17 +6829,17 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -7012,32 +7087,32 @@
     </row>
     <row r="28" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:33" s="7" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
     </row>
     <row r="30" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -7180,32 +7255,32 @@
     </row>
     <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
@@ -7312,16 +7387,16 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -7340,32 +7415,32 @@
       <c r="X38" s="5"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="81" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="16" t="s">
@@ -7452,16 +7527,16 @@
       <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="81" t="s">
         <v>406</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -7494,32 +7569,32 @@
       <c r="M44" s="7"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
+      <c r="T46" s="79"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
@@ -7606,16 +7681,16 @@
       <c r="X48" s="5"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -7634,16 +7709,16 @@
       <c r="X49" s="5"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -7662,32 +7737,32 @@
       <c r="X50" s="5"/>
     </row>
     <row r="52" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="71"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="79"/>
+      <c r="R52" s="79"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="80"/>
     </row>
     <row r="53" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
@@ -7905,16 +7980,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A3:X3"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A19:X19"/>
-    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A46:X46"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A50:H50"/>
@@ -7924,6 +7989,16 @@
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:X40"/>
     <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A19:X19"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A9:X9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
